--- a/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName1/subject44.xlsx
+++ b/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName1/subject44.xlsx
@@ -56,74 +56,74 @@
   <dimension ref="A1:BP68"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.16796875" customWidth="true"/>
-    <col min="2" max="2" width="2.16796875" customWidth="true"/>
-    <col min="3" max="3" width="2.16796875" customWidth="true"/>
-    <col min="4" max="4" width="2.16796875" customWidth="true"/>
-    <col min="5" max="5" width="2.16796875" customWidth="true"/>
-    <col min="6" max="6" width="2.16796875" customWidth="true"/>
-    <col min="7" max="7" width="2.16796875" customWidth="true"/>
-    <col min="8" max="8" width="2.16796875" customWidth="true"/>
-    <col min="9" max="9" width="2.16796875" customWidth="true"/>
-    <col min="10" max="10" width="2.16796875" customWidth="true"/>
-    <col min="11" max="11" width="2.16796875" customWidth="true"/>
-    <col min="12" max="12" width="2.16796875" customWidth="true"/>
-    <col min="13" max="13" width="2.16796875" customWidth="true"/>
-    <col min="14" max="14" width="2.16796875" customWidth="true"/>
-    <col min="15" max="15" width="2.16796875" customWidth="true"/>
-    <col min="16" max="16" width="2.16796875" customWidth="true"/>
-    <col min="17" max="17" width="2.16796875" customWidth="true"/>
-    <col min="18" max="18" width="2.16796875" customWidth="true"/>
-    <col min="19" max="19" width="2.16796875" customWidth="true"/>
-    <col min="20" max="20" width="2.16796875" customWidth="true"/>
-    <col min="21" max="21" width="2.16796875" customWidth="true"/>
-    <col min="22" max="22" width="2.16796875" customWidth="true"/>
-    <col min="23" max="23" width="2.16796875" customWidth="true"/>
-    <col min="24" max="24" width="2.16796875" customWidth="true"/>
-    <col min="25" max="25" width="2.16796875" customWidth="true"/>
-    <col min="26" max="26" width="2.16796875" customWidth="true"/>
-    <col min="27" max="27" width="2.16796875" customWidth="true"/>
-    <col min="28" max="28" width="2.16796875" customWidth="true"/>
-    <col min="29" max="29" width="2.16796875" customWidth="true"/>
-    <col min="30" max="30" width="2.16796875" customWidth="true"/>
-    <col min="31" max="31" width="2.16796875" customWidth="true"/>
-    <col min="32" max="32" width="2.16796875" customWidth="true"/>
-    <col min="33" max="33" width="2.16796875" customWidth="true"/>
-    <col min="34" max="34" width="2.16796875" customWidth="true"/>
-    <col min="35" max="35" width="2.16796875" customWidth="true"/>
-    <col min="36" max="36" width="2.16796875" customWidth="true"/>
-    <col min="37" max="37" width="2.16796875" customWidth="true"/>
-    <col min="38" max="38" width="2.16796875" customWidth="true"/>
-    <col min="39" max="39" width="2.16796875" customWidth="true"/>
-    <col min="40" max="40" width="2.16796875" customWidth="true"/>
-    <col min="41" max="41" width="2.16796875" customWidth="true"/>
-    <col min="42" max="42" width="2.16796875" customWidth="true"/>
-    <col min="43" max="43" width="2.16796875" customWidth="true"/>
-    <col min="44" max="44" width="2.16796875" customWidth="true"/>
-    <col min="45" max="45" width="2.16796875" customWidth="true"/>
-    <col min="46" max="46" width="2.16796875" customWidth="true"/>
-    <col min="47" max="47" width="2.16796875" customWidth="true"/>
-    <col min="48" max="48" width="2.16796875" customWidth="true"/>
-    <col min="49" max="49" width="2.16796875" customWidth="true"/>
-    <col min="50" max="50" width="2.16796875" customWidth="true"/>
-    <col min="51" max="51" width="2.16796875" customWidth="true"/>
-    <col min="52" max="52" width="2.16796875" customWidth="true"/>
-    <col min="53" max="53" width="2.16796875" customWidth="true"/>
-    <col min="54" max="54" width="2.16796875" customWidth="true"/>
-    <col min="55" max="55" width="2.16796875" customWidth="true"/>
-    <col min="56" max="56" width="2.16796875" customWidth="true"/>
-    <col min="57" max="57" width="2.16796875" customWidth="true"/>
-    <col min="58" max="58" width="2.16796875" customWidth="true"/>
-    <col min="59" max="59" width="2.16796875" customWidth="true"/>
-    <col min="60" max="60" width="2.16796875" customWidth="true"/>
-    <col min="61" max="61" width="2.16796875" customWidth="true"/>
-    <col min="62" max="62" width="2.16796875" customWidth="true"/>
-    <col min="63" max="63" width="2.16796875" customWidth="true"/>
-    <col min="64" max="64" width="2.16796875" customWidth="true"/>
-    <col min="65" max="65" width="2.16796875" customWidth="true"/>
-    <col min="66" max="66" width="2.16796875" customWidth="true"/>
-    <col min="67" max="67" width="2.16796875" customWidth="true"/>
-    <col min="68" max="68" width="2.16796875" customWidth="true"/>
+    <col min="1" max="1" width="12.7109375" customWidth="true"/>
+    <col min="2" max="2" width="12.7109375" customWidth="true"/>
+    <col min="3" max="3" width="12.7109375" customWidth="true"/>
+    <col min="4" max="4" width="12.7109375" customWidth="true"/>
+    <col min="5" max="5" width="12.7109375" customWidth="true"/>
+    <col min="6" max="6" width="12.7109375" customWidth="true"/>
+    <col min="7" max="7" width="12.7109375" customWidth="true"/>
+    <col min="8" max="8" width="12.7109375" customWidth="true"/>
+    <col min="9" max="9" width="12.7109375" customWidth="true"/>
+    <col min="10" max="10" width="12.7109375" customWidth="true"/>
+    <col min="11" max="11" width="12.7109375" customWidth="true"/>
+    <col min="12" max="12" width="12.7109375" customWidth="true"/>
+    <col min="13" max="13" width="12.7109375" customWidth="true"/>
+    <col min="14" max="14" width="12.7109375" customWidth="true"/>
+    <col min="15" max="15" width="12.7109375" customWidth="true"/>
+    <col min="16" max="16" width="12.7109375" customWidth="true"/>
+    <col min="17" max="17" width="12.7109375" customWidth="true"/>
+    <col min="18" max="18" width="12.7109375" customWidth="true"/>
+    <col min="19" max="19" width="12.7109375" customWidth="true"/>
+    <col min="20" max="20" width="12.7109375" customWidth="true"/>
+    <col min="21" max="21" width="12.7109375" customWidth="true"/>
+    <col min="22" max="22" width="12.7109375" customWidth="true"/>
+    <col min="23" max="23" width="12.7109375" customWidth="true"/>
+    <col min="24" max="24" width="12.7109375" customWidth="true"/>
+    <col min="25" max="25" width="12.7109375" customWidth="true"/>
+    <col min="26" max="26" width="12.7109375" customWidth="true"/>
+    <col min="27" max="27" width="12.7109375" customWidth="true"/>
+    <col min="28" max="28" width="12.7109375" customWidth="true"/>
+    <col min="29" max="29" width="12.7109375" customWidth="true"/>
+    <col min="30" max="30" width="12.7109375" customWidth="true"/>
+    <col min="31" max="31" width="12.7109375" customWidth="true"/>
+    <col min="32" max="32" width="12.7109375" customWidth="true"/>
+    <col min="33" max="33" width="12.7109375" customWidth="true"/>
+    <col min="34" max="34" width="12.7109375" customWidth="true"/>
+    <col min="35" max="35" width="12.7109375" customWidth="true"/>
+    <col min="36" max="36" width="12.7109375" customWidth="true"/>
+    <col min="37" max="37" width="12.7109375" customWidth="true"/>
+    <col min="38" max="38" width="12.7109375" customWidth="true"/>
+    <col min="39" max="39" width="12.7109375" customWidth="true"/>
+    <col min="40" max="40" width="12.7109375" customWidth="true"/>
+    <col min="41" max="41" width="12.7109375" customWidth="true"/>
+    <col min="42" max="42" width="12.7109375" customWidth="true"/>
+    <col min="43" max="43" width="12.7109375" customWidth="true"/>
+    <col min="44" max="44" width="12.7109375" customWidth="true"/>
+    <col min="45" max="45" width="12.7109375" customWidth="true"/>
+    <col min="46" max="46" width="12.7109375" customWidth="true"/>
+    <col min="47" max="47" width="12.7109375" customWidth="true"/>
+    <col min="48" max="48" width="12.7109375" customWidth="true"/>
+    <col min="49" max="49" width="12.7109375" customWidth="true"/>
+    <col min="50" max="50" width="12.7109375" customWidth="true"/>
+    <col min="51" max="51" width="12.7109375" customWidth="true"/>
+    <col min="52" max="52" width="12.7109375" customWidth="true"/>
+    <col min="53" max="53" width="12.7109375" customWidth="true"/>
+    <col min="54" max="54" width="12.7109375" customWidth="true"/>
+    <col min="55" max="55" width="12.7109375" customWidth="true"/>
+    <col min="56" max="56" width="12.7109375" customWidth="true"/>
+    <col min="57" max="57" width="12.7109375" customWidth="true"/>
+    <col min="58" max="58" width="12.7109375" customWidth="true"/>
+    <col min="59" max="59" width="12.7109375" customWidth="true"/>
+    <col min="60" max="60" width="12.7109375" customWidth="true"/>
+    <col min="61" max="61" width="12.7109375" customWidth="true"/>
+    <col min="62" max="62" width="12.7109375" customWidth="true"/>
+    <col min="63" max="63" width="12.7109375" customWidth="true"/>
+    <col min="64" max="64" width="12.7109375" customWidth="true"/>
+    <col min="65" max="65" width="12.7109375" customWidth="true"/>
+    <col min="66" max="66" width="12.7109375" customWidth="true"/>
+    <col min="67" max="67" width="12.7109375" customWidth="true"/>
+    <col min="68" max="68" width="12.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -131,7 +131,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0">
-        <v>1</v>
+        <v>0.54727730700077792</v>
       </c>
       <c r="C1" s="0">
         <v>0</v>
@@ -245,7 +245,7 @@
         <v>0</v>
       </c>
       <c r="AN1" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO1" s="0">
         <v>0</v>
@@ -317,7 +317,7 @@
         <v>0</v>
       </c>
       <c r="BL1" s="0">
-        <v>0</v>
+        <v>0.85169625792419446</v>
       </c>
       <c r="BM1" s="0">
         <v>0</v>
@@ -326,24 +326,24 @@
         <v>0</v>
       </c>
       <c r="BO1" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP1" s="0">
-        <v>1</v>
+        <v>0.63238729277621542</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>1</v>
+        <v>0.67803479114983412</v>
       </c>
       <c r="B2" s="0">
         <v>0</v>
       </c>
       <c r="C2" s="0">
-        <v>1</v>
+        <v>0.53635087188581743</v>
       </c>
       <c r="D2" s="0">
-        <v>1</v>
+        <v>0.56511712900033073</v>
       </c>
       <c r="E2" s="0">
         <v>0</v>
@@ -472,7 +472,7 @@
         <v>0</v>
       </c>
       <c r="AU2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV2" s="0">
         <v>0</v>
@@ -520,7 +520,7 @@
         <v>0</v>
       </c>
       <c r="BK2" s="0">
-        <v>0</v>
+        <v>0.83498329055797293</v>
       </c>
       <c r="BL2" s="0">
         <v>0</v>
@@ -535,7 +535,7 @@
         <v>0</v>
       </c>
       <c r="BP2" s="0">
-        <v>1</v>
+        <v>0.70933300472642835</v>
       </c>
     </row>
     <row r="3">
@@ -543,16 +543,16 @@
         <v>0</v>
       </c>
       <c r="B3" s="0">
-        <v>1</v>
+        <v>0.54150621371675611</v>
       </c>
       <c r="C3" s="0">
         <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" s="0">
-        <v>1</v>
+        <v>0.88200444055247451</v>
       </c>
       <c r="F3" s="0">
         <v>0</v>
@@ -561,7 +561,7 @@
         <v>0</v>
       </c>
       <c r="H3" s="0">
-        <v>0</v>
+        <v>0.92037825725492484</v>
       </c>
       <c r="I3" s="0">
         <v>0</v>
@@ -749,19 +749,19 @@
         <v>0</v>
       </c>
       <c r="B4" s="0">
-        <v>1</v>
+        <v>0.97288749503397409</v>
       </c>
       <c r="C4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" s="0">
-        <v>1</v>
+        <v>0.74276010920401159</v>
       </c>
       <c r="G4" s="0">
         <v>0</v>
@@ -848,7 +848,7 @@
         <v>0</v>
       </c>
       <c r="AI4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="0">
         <v>0</v>
@@ -857,7 +857,7 @@
         <v>0</v>
       </c>
       <c r="AL4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM4" s="0">
         <v>0</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="BN4" s="0">
-        <v>0</v>
+        <v>0.97963536766872794</v>
       </c>
       <c r="BO4" s="0">
         <v>0</v>
@@ -958,19 +958,19 @@
         <v>0</v>
       </c>
       <c r="C5" s="0">
-        <v>1</v>
+        <v>0.76881572447082813</v>
       </c>
       <c r="D5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" s="0">
         <v>0</v>
       </c>
       <c r="F5" s="0">
-        <v>0</v>
+        <v>0.97124550683980493</v>
       </c>
       <c r="G5" s="0">
-        <v>1</v>
+        <v>0.87558583060844009</v>
       </c>
       <c r="H5" s="0">
         <v>0</v>
@@ -985,7 +985,7 @@
         <v>0</v>
       </c>
       <c r="L5" s="0">
-        <v>0</v>
+        <v>0.66466502964326846</v>
       </c>
       <c r="M5" s="0">
         <v>0</v>
@@ -1120,13 +1120,13 @@
         <v>0</v>
       </c>
       <c r="BE5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF5" s="0">
         <v>0</v>
       </c>
       <c r="BG5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH5" s="0">
         <v>0</v>
@@ -1167,19 +1167,19 @@
         <v>0</v>
       </c>
       <c r="D6" s="0">
-        <v>1</v>
+        <v>0.95273202936010803</v>
       </c>
       <c r="E6" s="0">
-        <v>0</v>
+        <v>0.73365872049245606</v>
       </c>
       <c r="F6" s="0">
         <v>0</v>
       </c>
       <c r="G6" s="0">
-        <v>1</v>
+        <v>0.76679438890524931</v>
       </c>
       <c r="H6" s="0">
-        <v>1</v>
+        <v>0.51159515829791347</v>
       </c>
       <c r="I6" s="0">
         <v>0</v>
@@ -1224,7 +1224,7 @@
         <v>0</v>
       </c>
       <c r="W6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X6" s="0">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="AH6" s="0">
-        <v>0</v>
+        <v>0.55428082571495807</v>
       </c>
       <c r="AI6" s="0">
         <v>0</v>
@@ -1308,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="AY6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ6" s="0">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         <v>0</v>
       </c>
       <c r="E7" s="0">
-        <v>1</v>
+        <v>0.82014394326513829</v>
       </c>
       <c r="F7" s="0">
-        <v>1</v>
+        <v>0.83878787648448683</v>
       </c>
       <c r="G7" s="0">
         <v>0</v>
       </c>
       <c r="H7" s="0">
-        <v>1</v>
+        <v>0.92200598780406762</v>
       </c>
       <c r="I7" s="0">
-        <v>1</v>
+        <v>0.90056726492772987</v>
       </c>
       <c r="J7" s="0">
         <v>0</v>
@@ -1576,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="C8" s="0">
-        <v>0</v>
+        <v>0.90024147197562088</v>
       </c>
       <c r="D8" s="0">
         <v>0</v>
@@ -1585,19 +1585,19 @@
         <v>0</v>
       </c>
       <c r="F8" s="0">
-        <v>1</v>
+        <v>0.96577833579014993</v>
       </c>
       <c r="G8" s="0">
-        <v>1</v>
+        <v>0.85349698517505335</v>
       </c>
       <c r="H8" s="0">
         <v>0</v>
       </c>
       <c r="I8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" s="0">
-        <v>1</v>
+        <v>0.79162633636021129</v>
       </c>
       <c r="K8" s="0">
         <v>0</v>
@@ -1618,13 +1618,13 @@
         <v>0</v>
       </c>
       <c r="Q8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R8" s="0">
         <v>0</v>
       </c>
       <c r="S8" s="0">
-        <v>0</v>
+        <v>0.85852537995773359</v>
       </c>
       <c r="T8" s="0">
         <v>0</v>
@@ -1708,7 +1708,7 @@
         <v>0</v>
       </c>
       <c r="AU8" s="0">
-        <v>0</v>
+        <v>0.67074900847176</v>
       </c>
       <c r="AV8" s="0">
         <v>0</v>
@@ -1794,19 +1794,19 @@
         <v>0</v>
       </c>
       <c r="G9" s="0">
-        <v>1</v>
+        <v>0.55375406915233982</v>
       </c>
       <c r="H9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" s="0">
         <v>0</v>
       </c>
       <c r="J9" s="0">
-        <v>1</v>
+        <v>0.63717235066835598</v>
       </c>
       <c r="K9" s="0">
-        <v>0</v>
+        <v>0.99048863995723546</v>
       </c>
       <c r="L9" s="0">
         <v>0</v>
@@ -1902,7 +1902,7 @@
         <v>0</v>
       </c>
       <c r="AQ9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR9" s="0">
         <v>0</v>
@@ -2003,19 +2003,19 @@
         <v>0</v>
       </c>
       <c r="H10" s="0">
-        <v>1</v>
+        <v>0.64714441965003644</v>
       </c>
       <c r="I10" s="0">
-        <v>1</v>
+        <v>0.64214449778127114</v>
       </c>
       <c r="J10" s="0">
         <v>0</v>
       </c>
       <c r="K10" s="0">
-        <v>1</v>
+        <v>0.7107858083945835</v>
       </c>
       <c r="L10" s="0">
-        <v>1</v>
+        <v>0.64976458212668298</v>
       </c>
       <c r="M10" s="0">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="AX10" s="0">
-        <v>0</v>
+        <v>0.71792346787499095</v>
       </c>
       <c r="AY10" s="0">
         <v>0</v>
@@ -2153,19 +2153,19 @@
         <v>0</v>
       </c>
       <c r="BF10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG10" s="0">
         <v>0</v>
       </c>
       <c r="BH10" s="0">
-        <v>0</v>
+        <v>0.65081669745523785</v>
       </c>
       <c r="BI10" s="0">
         <v>0</v>
       </c>
       <c r="BJ10" s="0">
-        <v>0</v>
+        <v>0.95083889959931911</v>
       </c>
       <c r="BK10" s="0">
         <v>0</v>
@@ -2177,10 +2177,10 @@
         <v>0</v>
       </c>
       <c r="BN10" s="0">
-        <v>0</v>
+        <v>0.80858962243266341</v>
       </c>
       <c r="BO10" s="0">
-        <v>0</v>
+        <v>0.82138820442584071</v>
       </c>
       <c r="BP10" s="0">
         <v>0</v>
@@ -2212,19 +2212,19 @@
         <v>0</v>
       </c>
       <c r="I11" s="0">
-        <v>0</v>
+        <v>0.765962831245658</v>
       </c>
       <c r="J11" s="0">
-        <v>1</v>
+        <v>0.66604173400463729</v>
       </c>
       <c r="K11" s="0">
         <v>0</v>
       </c>
       <c r="L11" s="0">
-        <v>1</v>
+        <v>0.80642629184520076</v>
       </c>
       <c r="M11" s="0">
-        <v>0</v>
+        <v>0.71563985981266964</v>
       </c>
       <c r="N11" s="0">
         <v>0</v>
@@ -2365,7 +2365,7 @@
         <v>0</v>
       </c>
       <c r="BH11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="0">
         <v>0</v>
@@ -2406,7 +2406,7 @@
         <v>0</v>
       </c>
       <c r="E12" s="0">
-        <v>0</v>
+        <v>0.90557777691126151</v>
       </c>
       <c r="F12" s="0">
         <v>0</v>
@@ -2421,19 +2421,19 @@
         <v>0</v>
       </c>
       <c r="J12" s="0">
-        <v>1</v>
+        <v>0.88600758086320652</v>
       </c>
       <c r="K12" s="0">
-        <v>1</v>
+        <v>0.56557689279586754</v>
       </c>
       <c r="L12" s="0">
         <v>0</v>
       </c>
       <c r="M12" s="0">
-        <v>1</v>
+        <v>0.50233012301483848</v>
       </c>
       <c r="N12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O12" s="0">
         <v>0</v>
@@ -2535,7 +2535,7 @@
         <v>0</v>
       </c>
       <c r="AV12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW12" s="0">
         <v>0</v>
@@ -2630,19 +2630,19 @@
         <v>0</v>
       </c>
       <c r="K13" s="0">
-        <v>0</v>
+        <v>0.61015021589721596</v>
       </c>
       <c r="L13" s="0">
-        <v>1</v>
+        <v>0.55637028250836917</v>
       </c>
       <c r="M13" s="0">
         <v>0</v>
       </c>
       <c r="N13" s="0">
-        <v>1</v>
+        <v>0.94019250393537179</v>
       </c>
       <c r="O13" s="0">
-        <v>1</v>
+        <v>0.55419728600738483</v>
       </c>
       <c r="P13" s="0">
         <v>0</v>
@@ -2839,19 +2839,19 @@
         <v>0</v>
       </c>
       <c r="L14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M14" s="0">
-        <v>1</v>
+        <v>0.63408237893164177</v>
       </c>
       <c r="N14" s="0">
         <v>0</v>
       </c>
       <c r="O14" s="0">
-        <v>1</v>
+        <v>0.88093750698839091</v>
       </c>
       <c r="P14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q14" s="0">
         <v>0</v>
@@ -2866,7 +2866,7 @@
         <v>0</v>
       </c>
       <c r="U14" s="0">
-        <v>0</v>
+        <v>0.76360999904246118</v>
       </c>
       <c r="V14" s="0">
         <v>0</v>
@@ -2896,7 +2896,7 @@
         <v>0</v>
       </c>
       <c r="AE14" s="0">
-        <v>0</v>
+        <v>0.98681131968814095</v>
       </c>
       <c r="AF14" s="0">
         <v>0</v>
@@ -3048,19 +3048,19 @@
         <v>0</v>
       </c>
       <c r="M15" s="0">
-        <v>1</v>
+        <v>0.61918823160932579</v>
       </c>
       <c r="N15" s="0">
-        <v>1</v>
+        <v>0.55466616990488138</v>
       </c>
       <c r="O15" s="0">
         <v>0</v>
       </c>
       <c r="P15" s="0">
-        <v>1</v>
+        <v>0.85737413787442618</v>
       </c>
       <c r="Q15" s="0">
-        <v>1</v>
+        <v>0.92787188705235402</v>
       </c>
       <c r="R15" s="0">
         <v>0</v>
@@ -3162,7 +3162,7 @@
         <v>0</v>
       </c>
       <c r="AY15" s="0">
-        <v>0</v>
+        <v>0.78520544859744112</v>
       </c>
       <c r="AZ15" s="0">
         <v>0</v>
@@ -3257,19 +3257,19 @@
         <v>0</v>
       </c>
       <c r="N16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O16" s="0">
-        <v>1</v>
+        <v>0.61609346809107024</v>
       </c>
       <c r="P16" s="0">
         <v>0</v>
       </c>
       <c r="Q16" s="0">
-        <v>0</v>
+        <v>0.5003690374249431</v>
       </c>
       <c r="R16" s="0">
-        <v>1</v>
+        <v>0.57783737178043681</v>
       </c>
       <c r="S16" s="0">
         <v>0</v>
@@ -3365,7 +3365,7 @@
         <v>0</v>
       </c>
       <c r="AX16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="0">
         <v>0</v>
@@ -3380,7 +3380,7 @@
         <v>0</v>
       </c>
       <c r="BC16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="0">
         <v>0</v>
@@ -3445,7 +3445,7 @@
         <v>0</v>
       </c>
       <c r="H17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" s="0">
         <v>0</v>
@@ -3466,19 +3466,19 @@
         <v>0</v>
       </c>
       <c r="O17" s="0">
-        <v>1</v>
+        <v>0.95884603683489489</v>
       </c>
       <c r="P17" s="0">
-        <v>0</v>
+        <v>0.5350429489478209</v>
       </c>
       <c r="Q17" s="0">
         <v>0</v>
       </c>
       <c r="R17" s="0">
-        <v>1</v>
+        <v>0.91212658752439824</v>
       </c>
       <c r="S17" s="0">
-        <v>0</v>
+        <v>0.75047496476156972</v>
       </c>
       <c r="T17" s="0">
         <v>0</v>
@@ -3675,19 +3675,19 @@
         <v>0</v>
       </c>
       <c r="P18" s="0">
-        <v>1</v>
+        <v>0.98355729400800107</v>
       </c>
       <c r="Q18" s="0">
-        <v>1</v>
+        <v>0.99936229994592696</v>
       </c>
       <c r="R18" s="0">
         <v>0</v>
       </c>
       <c r="S18" s="0">
-        <v>1</v>
+        <v>0.83355280616886152</v>
       </c>
       <c r="T18" s="0">
-        <v>1</v>
+        <v>0.80370193966072456</v>
       </c>
       <c r="U18" s="0">
         <v>0</v>
@@ -3756,7 +3756,7 @@
         <v>0</v>
       </c>
       <c r="AQ18" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR18" s="0">
         <v>0</v>
@@ -3857,7 +3857,7 @@
         <v>0</v>
       </c>
       <c r="H19" s="0">
-        <v>0</v>
+        <v>0.61233076925374208</v>
       </c>
       <c r="I19" s="0">
         <v>0</v>
@@ -3884,19 +3884,19 @@
         <v>0</v>
       </c>
       <c r="Q19" s="0">
-        <v>0</v>
+        <v>0.58692716421107494</v>
       </c>
       <c r="R19" s="0">
-        <v>1</v>
+        <v>0.72402992785631481</v>
       </c>
       <c r="S19" s="0">
         <v>0</v>
       </c>
       <c r="T19" s="0">
-        <v>1</v>
+        <v>0.56745680129120912</v>
       </c>
       <c r="U19" s="0">
-        <v>1</v>
+        <v>0.95255422392249145</v>
       </c>
       <c r="V19" s="0">
         <v>0</v>
@@ -3989,7 +3989,7 @@
         <v>0</v>
       </c>
       <c r="AZ19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA19" s="0">
         <v>0</v>
@@ -4093,19 +4093,19 @@
         <v>0</v>
       </c>
       <c r="R20" s="0">
-        <v>1</v>
+        <v>0.54427071246747882</v>
       </c>
       <c r="S20" s="0">
-        <v>1</v>
+        <v>0.9190567380578899</v>
       </c>
       <c r="T20" s="0">
         <v>0</v>
       </c>
       <c r="U20" s="0">
-        <v>1</v>
+        <v>0.83319775947561592</v>
       </c>
       <c r="V20" s="0">
-        <v>0</v>
+        <v>0.93604060545225798</v>
       </c>
       <c r="W20" s="0">
         <v>0</v>
@@ -4174,7 +4174,7 @@
         <v>0</v>
       </c>
       <c r="AS20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="0">
         <v>0</v>
@@ -4287,7 +4287,7 @@
         <v>0</v>
       </c>
       <c r="N21" s="0">
-        <v>0</v>
+        <v>0.72321781648220651</v>
       </c>
       <c r="O21" s="0">
         <v>0</v>
@@ -4302,19 +4302,19 @@
         <v>0</v>
       </c>
       <c r="S21" s="0">
-        <v>1</v>
+        <v>0.8783422274754018</v>
       </c>
       <c r="T21" s="0">
-        <v>1</v>
+        <v>0.51702041133209053</v>
       </c>
       <c r="U21" s="0">
         <v>0</v>
       </c>
       <c r="V21" s="0">
-        <v>1</v>
+        <v>0.78604366219099397</v>
       </c>
       <c r="W21" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X21" s="0">
         <v>0</v>
@@ -4356,7 +4356,7 @@
         <v>0</v>
       </c>
       <c r="AK21" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL21" s="0">
         <v>0</v>
@@ -4511,19 +4511,19 @@
         <v>0</v>
       </c>
       <c r="T22" s="0">
-        <v>0</v>
+        <v>0.86262146686555519</v>
       </c>
       <c r="U22" s="0">
-        <v>1</v>
+        <v>0.83083712574213864</v>
       </c>
       <c r="V22" s="0">
         <v>0</v>
       </c>
       <c r="W22" s="0">
-        <v>0</v>
+        <v>0.89222142170470309</v>
       </c>
       <c r="X22" s="0">
-        <v>1</v>
+        <v>0.83729147107772561</v>
       </c>
       <c r="Y22" s="0">
         <v>0</v>
@@ -4586,7 +4586,7 @@
         <v>0</v>
       </c>
       <c r="AS22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="0">
         <v>0</v>
@@ -4675,7 +4675,7 @@
         <v>0</v>
       </c>
       <c r="F23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23" s="0">
         <v>0</v>
@@ -4720,19 +4720,19 @@
         <v>0</v>
       </c>
       <c r="U23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V23" s="0">
-        <v>0</v>
+        <v>0.95104229525100825</v>
       </c>
       <c r="W23" s="0">
         <v>0</v>
       </c>
       <c r="X23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y23" s="0">
-        <v>0</v>
+        <v>0.72263166818914237</v>
       </c>
       <c r="Z23" s="0">
         <v>0</v>
@@ -4777,7 +4777,7 @@
         <v>0</v>
       </c>
       <c r="AN23" s="0">
-        <v>0</v>
+        <v>0.82471752458801673</v>
       </c>
       <c r="AO23" s="0">
         <v>0</v>
@@ -4807,7 +4807,7 @@
         <v>0</v>
       </c>
       <c r="AX23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="0">
         <v>0</v>
@@ -4929,19 +4929,19 @@
         <v>0</v>
       </c>
       <c r="V24" s="0">
-        <v>1</v>
+        <v>0.73821632041258367</v>
       </c>
       <c r="W24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X24" s="0">
         <v>0</v>
       </c>
       <c r="Y24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="0">
-        <v>1</v>
+        <v>0.72635673437590809</v>
       </c>
       <c r="AA24" s="0">
         <v>0</v>
@@ -4950,7 +4950,7 @@
         <v>0</v>
       </c>
       <c r="AC24" s="0">
-        <v>0</v>
+        <v>0.7291483854405314</v>
       </c>
       <c r="AD24" s="0">
         <v>0</v>
@@ -5019,7 +5019,7 @@
         <v>0</v>
       </c>
       <c r="AZ24" s="0">
-        <v>0</v>
+        <v>0.70351682021776951</v>
       </c>
       <c r="BA24" s="0">
         <v>0</v>
@@ -5138,19 +5138,19 @@
         <v>0</v>
       </c>
       <c r="W25" s="0">
-        <v>0</v>
+        <v>0.60778781405691129</v>
       </c>
       <c r="X25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y25" s="0">
         <v>0</v>
       </c>
       <c r="Z25" s="0">
-        <v>1</v>
+        <v>0.72510601481172987</v>
       </c>
       <c r="AA25" s="0">
-        <v>1</v>
+        <v>0.97643346860326075</v>
       </c>
       <c r="AB25" s="0">
         <v>0</v>
@@ -5347,19 +5347,19 @@
         <v>0</v>
       </c>
       <c r="X26" s="0">
-        <v>1</v>
+        <v>0.7764972605777547</v>
       </c>
       <c r="Y26" s="0">
-        <v>1</v>
+        <v>0.70446424183091416</v>
       </c>
       <c r="Z26" s="0">
         <v>0</v>
       </c>
       <c r="AA26" s="0">
-        <v>1</v>
+        <v>0.80625866179226335</v>
       </c>
       <c r="AB26" s="0">
-        <v>1</v>
+        <v>0.64210624297401875</v>
       </c>
       <c r="AC26" s="0">
         <v>0</v>
@@ -5556,19 +5556,19 @@
         <v>0</v>
       </c>
       <c r="Y27" s="0">
-        <v>1</v>
+        <v>0.92302601347000635</v>
       </c>
       <c r="Z27" s="0">
-        <v>1</v>
+        <v>0.89505782868874872</v>
       </c>
       <c r="AA27" s="0">
         <v>0</v>
       </c>
       <c r="AB27" s="0">
-        <v>1</v>
+        <v>0.81971758955882934</v>
       </c>
       <c r="AC27" s="0">
-        <v>1</v>
+        <v>0.68434956475421882</v>
       </c>
       <c r="AD27" s="0">
         <v>0</v>
@@ -5676,7 +5676,7 @@
         <v>0</v>
       </c>
       <c r="BM27" s="0">
-        <v>0</v>
+        <v>0.9318153320876057</v>
       </c>
       <c r="BN27" s="0">
         <v>0</v>
@@ -5765,19 +5765,19 @@
         <v>0</v>
       </c>
       <c r="Z28" s="0">
-        <v>1</v>
+        <v>0.78782655330303175</v>
       </c>
       <c r="AA28" s="0">
-        <v>1</v>
+        <v>0.79828426312763878</v>
       </c>
       <c r="AB28" s="0">
         <v>0</v>
       </c>
       <c r="AC28" s="0">
-        <v>0</v>
+        <v>0.58013081437399683</v>
       </c>
       <c r="AD28" s="0">
-        <v>1</v>
+        <v>0.82451925973670392</v>
       </c>
       <c r="AE28" s="0">
         <v>0</v>
@@ -5804,7 +5804,7 @@
         <v>0</v>
       </c>
       <c r="AM28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN28" s="0">
         <v>0</v>
@@ -5870,10 +5870,10 @@
         <v>0</v>
       </c>
       <c r="BI28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK28" s="0">
         <v>0</v>
@@ -5882,7 +5882,7 @@
         <v>0</v>
       </c>
       <c r="BM28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN28" s="0">
         <v>0</v>
@@ -5965,7 +5965,7 @@
         <v>0</v>
       </c>
       <c r="X29" s="0">
-        <v>0</v>
+        <v>0.65440047091375697</v>
       </c>
       <c r="Y29" s="0">
         <v>0</v>
@@ -5974,16 +5974,16 @@
         <v>0</v>
       </c>
       <c r="AA29" s="0">
-        <v>1</v>
+        <v>0.54907650295878585</v>
       </c>
       <c r="AB29" s="0">
-        <v>0</v>
+        <v>0.88844864534379742</v>
       </c>
       <c r="AC29" s="0">
         <v>0</v>
       </c>
       <c r="AD29" s="0">
-        <v>1</v>
+        <v>0.83671735003141023</v>
       </c>
       <c r="AE29" s="0">
         <v>0</v>
@@ -6097,7 +6097,7 @@
         <v>0</v>
       </c>
       <c r="BP29" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -6183,19 +6183,19 @@
         <v>0</v>
       </c>
       <c r="AB30" s="0">
-        <v>1</v>
+        <v>0.77304004259389025</v>
       </c>
       <c r="AC30" s="0">
-        <v>1</v>
+        <v>0.85539019028888053</v>
       </c>
       <c r="AD30" s="0">
         <v>0</v>
       </c>
       <c r="AE30" s="0">
-        <v>1</v>
+        <v>0.59275207539401609</v>
       </c>
       <c r="AF30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG30" s="0">
         <v>0</v>
@@ -6258,7 +6258,7 @@
         <v>0</v>
       </c>
       <c r="BA30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB30" s="0">
         <v>0</v>
@@ -6291,7 +6291,7 @@
         <v>0</v>
       </c>
       <c r="BL30" s="0">
-        <v>0</v>
+        <v>0.58674261559540275</v>
       </c>
       <c r="BM30" s="0">
         <v>0</v>
@@ -6347,7 +6347,7 @@
         <v>0</v>
       </c>
       <c r="N31" s="0">
-        <v>0</v>
+        <v>0.53001254690150867</v>
       </c>
       <c r="O31" s="0">
         <v>0</v>
@@ -6395,16 +6395,16 @@
         <v>0</v>
       </c>
       <c r="AD31" s="0">
-        <v>1</v>
+        <v>0.81884797596899106</v>
       </c>
       <c r="AE31" s="0">
         <v>0</v>
       </c>
       <c r="AF31" s="0">
-        <v>1</v>
+        <v>0.52393604172003216</v>
       </c>
       <c r="AG31" s="0">
-        <v>0</v>
+        <v>0.91206491158432801</v>
       </c>
       <c r="AH31" s="0">
         <v>0</v>
@@ -6440,7 +6440,7 @@
         <v>0</v>
       </c>
       <c r="AS31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT31" s="0">
         <v>0</v>
@@ -6482,7 +6482,7 @@
         <v>0</v>
       </c>
       <c r="BG31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH31" s="0">
         <v>0</v>
@@ -6601,19 +6601,19 @@
         <v>0</v>
       </c>
       <c r="AD32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE32" s="0">
-        <v>1</v>
+        <v>0.67790647497535472</v>
       </c>
       <c r="AF32" s="0">
         <v>0</v>
       </c>
       <c r="AG32" s="0">
-        <v>1</v>
+        <v>0.94599866184163162</v>
       </c>
       <c r="AH32" s="0">
-        <v>1</v>
+        <v>0.69481494668902166</v>
       </c>
       <c r="AI32" s="0">
         <v>0</v>
@@ -6810,19 +6810,19 @@
         <v>0</v>
       </c>
       <c r="AE33" s="0">
-        <v>0</v>
+        <v>0.95749742473639343</v>
       </c>
       <c r="AF33" s="0">
-        <v>1</v>
+        <v>0.87341504975611572</v>
       </c>
       <c r="AG33" s="0">
         <v>0</v>
       </c>
       <c r="AH33" s="0">
-        <v>1</v>
+        <v>0.69708130146717662</v>
       </c>
       <c r="AI33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ33" s="0">
         <v>0</v>
@@ -6912,7 +6912,7 @@
         <v>0</v>
       </c>
       <c r="BM33" s="0">
-        <v>0</v>
+        <v>0.59698110502332358</v>
       </c>
       <c r="BN33" s="0">
         <v>0</v>
@@ -6941,7 +6941,7 @@
         <v>0</v>
       </c>
       <c r="F34" s="0">
-        <v>0</v>
+        <v>0.86377972732039421</v>
       </c>
       <c r="G34" s="0">
         <v>0</v>
@@ -7019,19 +7019,19 @@
         <v>0</v>
       </c>
       <c r="AF34" s="0">
-        <v>1</v>
+        <v>0.64864248645518296</v>
       </c>
       <c r="AG34" s="0">
-        <v>1</v>
+        <v>0.65839455023295557</v>
       </c>
       <c r="AH34" s="0">
         <v>0</v>
       </c>
       <c r="AI34" s="0">
-        <v>0</v>
+        <v>0.72356885342728994</v>
       </c>
       <c r="AJ34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK34" s="0">
         <v>0</v>
@@ -7052,13 +7052,13 @@
         <v>0</v>
       </c>
       <c r="AQ34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR34" s="0">
         <v>0</v>
       </c>
       <c r="AS34" s="0">
-        <v>0</v>
+        <v>0.56673609299763905</v>
       </c>
       <c r="AT34" s="0">
         <v>0</v>
@@ -7141,7 +7141,7 @@
         <v>0</v>
       </c>
       <c r="D35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E35" s="0">
         <v>0</v>
@@ -7228,10 +7228,10 @@
         <v>0</v>
       </c>
       <c r="AG35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH35" s="0">
-        <v>0</v>
+        <v>0.50506632873260304</v>
       </c>
       <c r="AI35" s="0">
         <v>0</v>
@@ -7240,13 +7240,13 @@
         <v>0</v>
       </c>
       <c r="AK35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL35" s="0">
         <v>0</v>
       </c>
       <c r="AM35" s="0">
-        <v>0</v>
+        <v>0.80209955144346634</v>
       </c>
       <c r="AN35" s="0">
         <v>0</v>
@@ -7285,7 +7285,7 @@
         <v>0</v>
       </c>
       <c r="AZ35" s="0">
-        <v>0</v>
+        <v>0.5875295190472124</v>
       </c>
       <c r="BA35" s="0">
         <v>0</v>
@@ -7437,7 +7437,7 @@
         <v>0</v>
       </c>
       <c r="AH36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI36" s="0">
         <v>0</v>
@@ -7446,10 +7446,10 @@
         <v>0</v>
       </c>
       <c r="AK36" s="0">
-        <v>1</v>
+        <v>0.50883790778849292</v>
       </c>
       <c r="AL36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM36" s="0">
         <v>0</v>
@@ -7518,7 +7518,7 @@
         <v>0</v>
       </c>
       <c r="BI36" s="0">
-        <v>0</v>
+        <v>0.64394542964941448</v>
       </c>
       <c r="BJ36" s="0">
         <v>0</v>
@@ -7530,7 +7530,7 @@
         <v>0</v>
       </c>
       <c r="BM36" s="0">
-        <v>0</v>
+        <v>0.55893395102029308</v>
       </c>
       <c r="BN36" s="0">
         <v>0</v>
@@ -7604,7 +7604,7 @@
         <v>0</v>
       </c>
       <c r="U37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V37" s="0">
         <v>0</v>
@@ -7646,19 +7646,19 @@
         <v>0</v>
       </c>
       <c r="AI37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ37" s="0">
-        <v>1</v>
+        <v>0.90249539850787741</v>
       </c>
       <c r="AK37" s="0">
         <v>0</v>
       </c>
       <c r="AL37" s="0">
-        <v>0</v>
+        <v>0.848761380938995</v>
       </c>
       <c r="AM37" s="0">
-        <v>1</v>
+        <v>0.51362376628997031</v>
       </c>
       <c r="AN37" s="0">
         <v>0</v>
@@ -7712,7 +7712,7 @@
         <v>0</v>
       </c>
       <c r="BE37" s="0">
-        <v>0</v>
+        <v>0.84084174495859876</v>
       </c>
       <c r="BF37" s="0">
         <v>0</v>
@@ -7730,7 +7730,7 @@
         <v>0</v>
       </c>
       <c r="BK37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL37" s="0">
         <v>0</v>
@@ -7759,7 +7759,7 @@
         <v>0</v>
       </c>
       <c r="D38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E38" s="0">
         <v>0</v>
@@ -7855,19 +7855,19 @@
         <v>0</v>
       </c>
       <c r="AJ38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK38" s="0">
-        <v>0</v>
+        <v>0.54040361521902447</v>
       </c>
       <c r="AL38" s="0">
         <v>0</v>
       </c>
       <c r="AM38" s="0">
-        <v>1</v>
+        <v>0.67621265773518435</v>
       </c>
       <c r="AN38" s="0">
-        <v>0</v>
+        <v>0.51048264010006017</v>
       </c>
       <c r="AO38" s="0">
         <v>0</v>
@@ -8037,7 +8037,7 @@
         <v>0</v>
       </c>
       <c r="AB39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC39" s="0">
         <v>0</v>
@@ -8058,25 +8058,25 @@
         <v>0</v>
       </c>
       <c r="AI39" s="0">
-        <v>0</v>
+        <v>0.50009159435618589</v>
       </c>
       <c r="AJ39" s="0">
         <v>0</v>
       </c>
       <c r="AK39" s="0">
-        <v>1</v>
+        <v>0.91899484689294775</v>
       </c>
       <c r="AL39" s="0">
-        <v>1</v>
+        <v>0.89930443638345314</v>
       </c>
       <c r="AM39" s="0">
         <v>0</v>
       </c>
       <c r="AN39" s="0">
-        <v>0</v>
+        <v>0.93368560821275048</v>
       </c>
       <c r="AO39" s="0">
-        <v>1</v>
+        <v>0.95154558136803535</v>
       </c>
       <c r="AP39" s="0">
         <v>0</v>
@@ -8162,7 +8162,7 @@
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B40" s="0">
         <v>0</v>
@@ -8228,7 +8228,7 @@
         <v>0</v>
       </c>
       <c r="W40" s="0">
-        <v>0</v>
+        <v>0.57859886567980989</v>
       </c>
       <c r="X40" s="0">
         <v>0</v>
@@ -8273,19 +8273,19 @@
         <v>0</v>
       </c>
       <c r="AL40" s="0">
-        <v>0</v>
+        <v>0.52127756934793257</v>
       </c>
       <c r="AM40" s="0">
-        <v>0</v>
+        <v>0.88419213698612487</v>
       </c>
       <c r="AN40" s="0">
         <v>0</v>
       </c>
       <c r="AO40" s="0">
-        <v>1</v>
+        <v>0.86252758825440479</v>
       </c>
       <c r="AP40" s="0">
-        <v>1</v>
+        <v>0.94794085771131464</v>
       </c>
       <c r="AQ40" s="0">
         <v>0</v>
@@ -8303,7 +8303,7 @@
         <v>0</v>
       </c>
       <c r="AV40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW40" s="0">
         <v>0</v>
@@ -8482,19 +8482,19 @@
         <v>0</v>
       </c>
       <c r="AM41" s="0">
-        <v>1</v>
+        <v>0.67493983237569899</v>
       </c>
       <c r="AN41" s="0">
-        <v>1</v>
+        <v>0.77803848491919525</v>
       </c>
       <c r="AO41" s="0">
         <v>0</v>
       </c>
       <c r="AP41" s="0">
-        <v>1</v>
+        <v>0.93100034202679494</v>
       </c>
       <c r="AQ41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR41" s="0">
         <v>0</v>
@@ -8545,7 +8545,7 @@
         <v>0</v>
       </c>
       <c r="BH41" s="0">
-        <v>0</v>
+        <v>0.6187079348142035</v>
       </c>
       <c r="BI41" s="0">
         <v>0</v>
@@ -8691,22 +8691,22 @@
         <v>0</v>
       </c>
       <c r="AN42" s="0">
-        <v>1</v>
+        <v>0.92370773668712802</v>
       </c>
       <c r="AO42" s="0">
-        <v>1</v>
+        <v>0.54120273214595782</v>
       </c>
       <c r="AP42" s="0">
         <v>0</v>
       </c>
       <c r="AQ42" s="0">
-        <v>1</v>
+        <v>0.66202330725014646</v>
       </c>
       <c r="AR42" s="0">
-        <v>1</v>
+        <v>0.91474042081035889</v>
       </c>
       <c r="AS42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT42" s="0">
         <v>0</v>
@@ -8804,7 +8804,7 @@
         <v>0</v>
       </c>
       <c r="I43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J43" s="0">
         <v>0</v>
@@ -8831,7 +8831,7 @@
         <v>0</v>
       </c>
       <c r="R43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S43" s="0">
         <v>0</v>
@@ -8879,7 +8879,7 @@
         <v>0</v>
       </c>
       <c r="AH43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI43" s="0">
         <v>0</v>
@@ -8900,19 +8900,19 @@
         <v>0</v>
       </c>
       <c r="AO43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP43" s="0">
-        <v>1</v>
+        <v>0.66864853068312802</v>
       </c>
       <c r="AQ43" s="0">
         <v>0</v>
       </c>
       <c r="AR43" s="0">
-        <v>1</v>
+        <v>0.71913069289594245</v>
       </c>
       <c r="AS43" s="0">
-        <v>0</v>
+        <v>0.9829772245583217</v>
       </c>
       <c r="AT43" s="0">
         <v>0</v>
@@ -8957,7 +8957,7 @@
         <v>0</v>
       </c>
       <c r="BH43" s="0">
-        <v>0</v>
+        <v>0.64884004045026478</v>
       </c>
       <c r="BI43" s="0">
         <v>0</v>
@@ -9109,19 +9109,19 @@
         <v>0</v>
       </c>
       <c r="AP44" s="0">
-        <v>1</v>
+        <v>0.77098214499428763</v>
       </c>
       <c r="AQ44" s="0">
-        <v>1</v>
+        <v>0.95099495242011711</v>
       </c>
       <c r="AR44" s="0">
         <v>0</v>
       </c>
       <c r="AS44" s="0">
-        <v>1</v>
+        <v>0.96890728593019415</v>
       </c>
       <c r="AT44" s="0">
-        <v>1</v>
+        <v>0.70162698430614312</v>
       </c>
       <c r="AU44" s="0">
         <v>0</v>
@@ -9249,13 +9249,13 @@
         <v>0</v>
       </c>
       <c r="T45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U45" s="0">
         <v>0</v>
       </c>
       <c r="V45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W45" s="0">
         <v>0</v>
@@ -9282,7 +9282,7 @@
         <v>0</v>
       </c>
       <c r="AE45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF45" s="0">
         <v>0</v>
@@ -9291,7 +9291,7 @@
         <v>0</v>
       </c>
       <c r="AH45" s="0">
-        <v>0</v>
+        <v>0.86107138554654628</v>
       </c>
       <c r="AI45" s="0">
         <v>0</v>
@@ -9315,19 +9315,19 @@
         <v>0</v>
       </c>
       <c r="AP45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ45" s="0">
-        <v>0</v>
+        <v>0.52419612764723844</v>
       </c>
       <c r="AR45" s="0">
-        <v>1</v>
+        <v>0.95387923947254682</v>
       </c>
       <c r="AS45" s="0">
         <v>0</v>
       </c>
       <c r="AT45" s="0">
-        <v>0</v>
+        <v>0.76913474449232822</v>
       </c>
       <c r="AU45" s="0">
         <v>0</v>
@@ -9381,7 +9381,7 @@
         <v>0</v>
       </c>
       <c r="BL45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM45" s="0">
         <v>0</v>
@@ -9527,19 +9527,19 @@
         <v>0</v>
       </c>
       <c r="AR46" s="0">
-        <v>1</v>
+        <v>0.68321746987924525</v>
       </c>
       <c r="AS46" s="0">
-        <v>0</v>
+        <v>0.57554604275461607</v>
       </c>
       <c r="AT46" s="0">
         <v>0</v>
       </c>
       <c r="AU46" s="0">
-        <v>1</v>
+        <v>0.99334594746585747</v>
       </c>
       <c r="AV46" s="0">
-        <v>1</v>
+        <v>0.58215015269244086</v>
       </c>
       <c r="AW46" s="0">
         <v>0</v>
@@ -9607,7 +9607,7 @@
         <v>0</v>
       </c>
       <c r="B47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C47" s="0">
         <v>0</v>
@@ -9625,7 +9625,7 @@
         <v>0</v>
       </c>
       <c r="H47" s="0">
-        <v>0</v>
+        <v>0.93777673633464498</v>
       </c>
       <c r="I47" s="0">
         <v>0</v>
@@ -9739,16 +9739,16 @@
         <v>0</v>
       </c>
       <c r="AT47" s="0">
-        <v>1</v>
+        <v>0.69122538845912906</v>
       </c>
       <c r="AU47" s="0">
         <v>0</v>
       </c>
       <c r="AV47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW47" s="0">
-        <v>0</v>
+        <v>0.59760737132895869</v>
       </c>
       <c r="AX47" s="0">
         <v>0</v>
@@ -9843,7 +9843,7 @@
         <v>0</v>
       </c>
       <c r="L48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M48" s="0">
         <v>0</v>
@@ -9927,7 +9927,7 @@
         <v>0</v>
       </c>
       <c r="AN48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO48" s="0">
         <v>0</v>
@@ -9945,19 +9945,19 @@
         <v>0</v>
       </c>
       <c r="AT48" s="0">
-        <v>1</v>
+        <v>0.54554043875493008</v>
       </c>
       <c r="AU48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV48" s="0">
         <v>0</v>
       </c>
       <c r="AW48" s="0">
-        <v>0</v>
+        <v>0.67353648712874992</v>
       </c>
       <c r="AX48" s="0">
-        <v>0</v>
+        <v>0.98891242609354979</v>
       </c>
       <c r="AY48" s="0">
         <v>0</v>
@@ -10154,19 +10154,19 @@
         <v>0</v>
       </c>
       <c r="AU49" s="0">
-        <v>0</v>
+        <v>0.67281940069482582</v>
       </c>
       <c r="AV49" s="0">
-        <v>0</v>
+        <v>0.60250235537116992</v>
       </c>
       <c r="AW49" s="0">
         <v>0</v>
       </c>
       <c r="AX49" s="0">
-        <v>1</v>
+        <v>0.90250197591305259</v>
       </c>
       <c r="AY49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ49" s="0">
         <v>0</v>
@@ -10208,7 +10208,7 @@
         <v>0</v>
       </c>
       <c r="BM49" s="0">
-        <v>0</v>
+        <v>0.60031670616233046</v>
       </c>
       <c r="BN49" s="0">
         <v>0</v>
@@ -10249,7 +10249,7 @@
         <v>0</v>
       </c>
       <c r="J50" s="0">
-        <v>0</v>
+        <v>0.80374068561669831</v>
       </c>
       <c r="K50" s="0">
         <v>0</v>
@@ -10267,7 +10267,7 @@
         <v>0</v>
       </c>
       <c r="P50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q50" s="0">
         <v>0</v>
@@ -10288,7 +10288,7 @@
         <v>0</v>
       </c>
       <c r="W50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X50" s="0">
         <v>0</v>
@@ -10363,10 +10363,10 @@
         <v>0</v>
       </c>
       <c r="AV50" s="0">
-        <v>0</v>
+        <v>0.6637881058437044</v>
       </c>
       <c r="AW50" s="0">
-        <v>1</v>
+        <v>0.97326508207775597</v>
       </c>
       <c r="AX50" s="0">
         <v>0</v>
@@ -10375,7 +10375,7 @@
         <v>0</v>
       </c>
       <c r="AZ50" s="0">
-        <v>1</v>
+        <v>0.78512316149198202</v>
       </c>
       <c r="BA50" s="0">
         <v>0</v>
@@ -10396,7 +10396,7 @@
         <v>0</v>
       </c>
       <c r="BG50" s="0">
-        <v>0</v>
+        <v>0.59648465365495196</v>
       </c>
       <c r="BH50" s="0">
         <v>0</v>
@@ -10443,7 +10443,7 @@
         <v>0</v>
       </c>
       <c r="F51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G51" s="0">
         <v>0</v>
@@ -10470,7 +10470,7 @@
         <v>0</v>
       </c>
       <c r="O51" s="0">
-        <v>0</v>
+        <v>0.96000543082232137</v>
       </c>
       <c r="P51" s="0">
         <v>0</v>
@@ -10572,7 +10572,7 @@
         <v>0</v>
       </c>
       <c r="AW51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX51" s="0">
         <v>0</v>
@@ -10581,10 +10581,10 @@
         <v>0</v>
       </c>
       <c r="AZ51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA51" s="0">
-        <v>0</v>
+        <v>0.76067624596753869</v>
       </c>
       <c r="BB51" s="0">
         <v>0</v>
@@ -10688,7 +10688,7 @@
         <v>0</v>
       </c>
       <c r="S52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T52" s="0">
         <v>0</v>
@@ -10703,7 +10703,7 @@
         <v>0</v>
       </c>
       <c r="X52" s="0">
-        <v>0</v>
+        <v>0.81078121413340642</v>
       </c>
       <c r="Y52" s="0">
         <v>0</v>
@@ -10736,7 +10736,7 @@
         <v>0</v>
       </c>
       <c r="AI52" s="0">
-        <v>0</v>
+        <v>0.53827006730047744</v>
       </c>
       <c r="AJ52" s="0">
         <v>0</v>
@@ -10781,19 +10781,19 @@
         <v>0</v>
       </c>
       <c r="AX52" s="0">
-        <v>1</v>
+        <v>0.96151681693828794</v>
       </c>
       <c r="AY52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ52" s="0">
         <v>0</v>
       </c>
       <c r="BA52" s="0">
-        <v>0</v>
+        <v>0.81124469407107958</v>
       </c>
       <c r="BB52" s="0">
-        <v>1</v>
+        <v>0.69592707894817529</v>
       </c>
       <c r="BC52" s="0">
         <v>0</v>
@@ -10927,7 +10927,7 @@
         <v>0</v>
       </c>
       <c r="AD53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE53" s="0">
         <v>0</v>
@@ -10990,19 +10990,19 @@
         <v>0</v>
       </c>
       <c r="AY53" s="0">
-        <v>0</v>
+        <v>0.83483212012531616</v>
       </c>
       <c r="AZ53" s="0">
-        <v>0</v>
+        <v>0.85067070819912938</v>
       </c>
       <c r="BA53" s="0">
         <v>0</v>
       </c>
       <c r="BB53" s="0">
-        <v>0</v>
+        <v>0.67941281477392179</v>
       </c>
       <c r="BC53" s="0">
-        <v>1</v>
+        <v>0.72922551299906169</v>
       </c>
       <c r="BD53" s="0">
         <v>0</v>
@@ -11199,22 +11199,22 @@
         <v>0</v>
       </c>
       <c r="AZ54" s="0">
-        <v>1</v>
+        <v>0.98290981255491949</v>
       </c>
       <c r="BA54" s="0">
-        <v>0</v>
+        <v>0.56049435160747774</v>
       </c>
       <c r="BB54" s="0">
         <v>0</v>
       </c>
       <c r="BC54" s="0">
-        <v>1</v>
+        <v>0.70262328142551933</v>
       </c>
       <c r="BD54" s="0">
-        <v>1</v>
+        <v>0.71977807724890963</v>
       </c>
       <c r="BE54" s="0">
-        <v>0</v>
+        <v>0.61529101344966719</v>
       </c>
       <c r="BF54" s="0">
         <v>0</v>
@@ -11297,7 +11297,7 @@
         <v>0</v>
       </c>
       <c r="P55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q55" s="0">
         <v>0</v>
@@ -11408,19 +11408,19 @@
         <v>0</v>
       </c>
       <c r="BA55" s="0">
-        <v>1</v>
+        <v>0.901961027934989</v>
       </c>
       <c r="BB55" s="0">
-        <v>1</v>
+        <v>0.70126613728693554</v>
       </c>
       <c r="BC55" s="0">
         <v>0</v>
       </c>
       <c r="BD55" s="0">
-        <v>0</v>
+        <v>0.71056009366710904</v>
       </c>
       <c r="BE55" s="0">
-        <v>1</v>
+        <v>0.71652098056573177</v>
       </c>
       <c r="BF55" s="0">
         <v>0</v>
@@ -11617,19 +11617,19 @@
         <v>0</v>
       </c>
       <c r="BB56" s="0">
-        <v>1</v>
+        <v>0.7117337279431788</v>
       </c>
       <c r="BC56" s="0">
-        <v>0</v>
+        <v>0.96358242357875812</v>
       </c>
       <c r="BD56" s="0">
         <v>0</v>
       </c>
       <c r="BE56" s="0">
-        <v>1</v>
+        <v>0.90277788659312885</v>
       </c>
       <c r="BF56" s="0">
-        <v>0</v>
+        <v>0.6822799645059433</v>
       </c>
       <c r="BG56" s="0">
         <v>0</v>
@@ -11644,7 +11644,7 @@
         <v>0</v>
       </c>
       <c r="BK56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL56" s="0">
         <v>0</v>
@@ -11676,7 +11676,7 @@
         <v>0</v>
       </c>
       <c r="E57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F57" s="0">
         <v>0</v>
@@ -11772,7 +11772,7 @@
         <v>0</v>
       </c>
       <c r="AK57" s="0">
-        <v>0</v>
+        <v>0.94588533245969686</v>
       </c>
       <c r="AL57" s="0">
         <v>0</v>
@@ -11823,22 +11823,22 @@
         <v>0</v>
       </c>
       <c r="BB57" s="0">
-        <v>0</v>
+        <v>0.99084464045993581</v>
       </c>
       <c r="BC57" s="0">
-        <v>1</v>
+        <v>0.64525972518699604</v>
       </c>
       <c r="BD57" s="0">
-        <v>1</v>
+        <v>0.88806852584442575</v>
       </c>
       <c r="BE57" s="0">
         <v>0</v>
       </c>
       <c r="BF57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH57" s="0">
         <v>0</v>
@@ -11897,7 +11897,7 @@
         <v>0</v>
       </c>
       <c r="J58" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K58" s="0">
         <v>0</v>
@@ -12035,19 +12035,19 @@
         <v>0</v>
       </c>
       <c r="BD58" s="0">
-        <v>0</v>
+        <v>0.83834761909553401</v>
       </c>
       <c r="BE58" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF58" s="0">
         <v>0</v>
       </c>
       <c r="BG58" s="0">
-        <v>1</v>
+        <v>0.96251542966482506</v>
       </c>
       <c r="BH58" s="0">
-        <v>0</v>
+        <v>0.79356723679678187</v>
       </c>
       <c r="BI58" s="0">
         <v>0</v>
@@ -12088,7 +12088,7 @@
         <v>0</v>
       </c>
       <c r="E59" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F59" s="0">
         <v>0</v>
@@ -12166,7 +12166,7 @@
         <v>0</v>
       </c>
       <c r="AE59" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF59" s="0">
         <v>0</v>
@@ -12223,7 +12223,7 @@
         <v>0</v>
       </c>
       <c r="AX59" s="0">
-        <v>0</v>
+        <v>0.89572529493956377</v>
       </c>
       <c r="AY59" s="0">
         <v>0</v>
@@ -12244,19 +12244,19 @@
         <v>0</v>
       </c>
       <c r="BE59" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF59" s="0">
-        <v>1</v>
+        <v>0.51286825432508887</v>
       </c>
       <c r="BG59" s="0">
         <v>0</v>
       </c>
       <c r="BH59" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI59" s="0">
-        <v>0</v>
+        <v>0.97536184198809617</v>
       </c>
       <c r="BJ59" s="0">
         <v>0</v>
@@ -12309,10 +12309,10 @@
         <v>0</v>
       </c>
       <c r="J60" s="0">
-        <v>0</v>
+        <v>0.82265167708283382</v>
       </c>
       <c r="K60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L60" s="0">
         <v>0</v>
@@ -12402,13 +12402,13 @@
         <v>0</v>
       </c>
       <c r="AO60" s="0">
-        <v>0</v>
+        <v>0.65695231980018742</v>
       </c>
       <c r="AP60" s="0">
         <v>0</v>
       </c>
       <c r="AQ60" s="0">
-        <v>0</v>
+        <v>0.82652350780444428</v>
       </c>
       <c r="AR60" s="0">
         <v>0</v>
@@ -12453,19 +12453,19 @@
         <v>0</v>
       </c>
       <c r="BF60" s="0">
-        <v>0</v>
+        <v>0.91503808136051434</v>
       </c>
       <c r="BG60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH60" s="0">
         <v>0</v>
       </c>
       <c r="BI60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ60" s="0">
-        <v>1</v>
+        <v>0.7556149498275968</v>
       </c>
       <c r="BK60" s="0">
         <v>0</v>
@@ -12569,7 +12569,7 @@
         <v>0</v>
       </c>
       <c r="AB61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC61" s="0">
         <v>0</v>
@@ -12593,7 +12593,7 @@
         <v>0</v>
       </c>
       <c r="AJ61" s="0">
-        <v>0</v>
+        <v>0.90448437358814782</v>
       </c>
       <c r="AK61" s="0">
         <v>0</v>
@@ -12662,16 +12662,16 @@
         <v>0</v>
       </c>
       <c r="BG61" s="0">
-        <v>0</v>
+        <v>0.51083457966042944</v>
       </c>
       <c r="BH61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI61" s="0">
         <v>0</v>
       </c>
       <c r="BJ61" s="0">
-        <v>1</v>
+        <v>0.68465944807191459</v>
       </c>
       <c r="BK61" s="0">
         <v>0</v>
@@ -12721,7 +12721,7 @@
         <v>0</v>
       </c>
       <c r="J62" s="0">
-        <v>0</v>
+        <v>0.84721125048775026</v>
       </c>
       <c r="K62" s="0">
         <v>0</v>
@@ -12775,7 +12775,7 @@
         <v>0</v>
       </c>
       <c r="AB62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC62" s="0">
         <v>0</v>
@@ -12871,16 +12871,16 @@
         <v>0</v>
       </c>
       <c r="BH62" s="0">
-        <v>1</v>
+        <v>0.96531579577547921</v>
       </c>
       <c r="BI62" s="0">
-        <v>1</v>
+        <v>0.86054725989946579</v>
       </c>
       <c r="BJ62" s="0">
         <v>0</v>
       </c>
       <c r="BK62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL62" s="0">
         <v>0</v>
@@ -12903,7 +12903,7 @@
         <v>0</v>
       </c>
       <c r="B63" s="0">
-        <v>0</v>
+        <v>0.56628044068821715</v>
       </c>
       <c r="C63" s="0">
         <v>0</v>
@@ -13008,7 +13008,7 @@
         <v>0</v>
       </c>
       <c r="AK63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL63" s="0">
         <v>0</v>
@@ -13065,7 +13065,7 @@
         <v>0</v>
       </c>
       <c r="BD63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE63" s="0">
         <v>0</v>
@@ -13083,7 +13083,7 @@
         <v>0</v>
       </c>
       <c r="BJ63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK63" s="0">
         <v>0</v>
@@ -13092,7 +13092,7 @@
         <v>0</v>
       </c>
       <c r="BM63" s="0">
-        <v>1</v>
+        <v>0.56853441375706759</v>
       </c>
       <c r="BN63" s="0">
         <v>0</v>
@@ -13106,7 +13106,7 @@
     </row>
     <row r="64">
       <c r="A64" s="0">
-        <v>0</v>
+        <v>0.55151800855732047</v>
       </c>
       <c r="B64" s="0">
         <v>0</v>
@@ -13193,7 +13193,7 @@
         <v>0</v>
       </c>
       <c r="AD64" s="0">
-        <v>0</v>
+        <v>0.55323431366648657</v>
       </c>
       <c r="AE64" s="0">
         <v>0</v>
@@ -13238,7 +13238,7 @@
         <v>0</v>
       </c>
       <c r="AS64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT64" s="0">
         <v>0</v>
@@ -13298,16 +13298,16 @@
         <v>0</v>
       </c>
       <c r="BM64" s="0">
-        <v>0</v>
+        <v>0.69401642520222717</v>
       </c>
       <c r="BN64" s="0">
-        <v>0</v>
+        <v>0.89215293854546607</v>
       </c>
       <c r="BO64" s="0">
         <v>0</v>
       </c>
       <c r="BP64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -13390,10 +13390,10 @@
         <v>0</v>
       </c>
       <c r="AA65" s="0">
-        <v>0</v>
+        <v>0.92651080573334821</v>
       </c>
       <c r="AB65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC65" s="0">
         <v>0</v>
@@ -13408,7 +13408,7 @@
         <v>0</v>
       </c>
       <c r="AG65" s="0">
-        <v>0</v>
+        <v>0.99486495228444261</v>
       </c>
       <c r="AH65" s="0">
         <v>0</v>
@@ -13417,7 +13417,7 @@
         <v>0</v>
       </c>
       <c r="AJ65" s="0">
-        <v>0</v>
+        <v>0.86304587135711119</v>
       </c>
       <c r="AK65" s="0">
         <v>0</v>
@@ -13456,7 +13456,7 @@
         <v>0</v>
       </c>
       <c r="AW65" s="0">
-        <v>0</v>
+        <v>0.68209840043648207</v>
       </c>
       <c r="AX65" s="0">
         <v>0</v>
@@ -13498,19 +13498,19 @@
         <v>0</v>
       </c>
       <c r="BK65" s="0">
-        <v>1</v>
+        <v>0.84817692346122486</v>
       </c>
       <c r="BL65" s="0">
-        <v>0</v>
+        <v>0.68451808988726826</v>
       </c>
       <c r="BM65" s="0">
         <v>0</v>
       </c>
       <c r="BN65" s="0">
-        <v>1</v>
+        <v>0.83521667918063969</v>
       </c>
       <c r="BO65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP65" s="0">
         <v>0</v>
@@ -13527,7 +13527,7 @@
         <v>0</v>
       </c>
       <c r="D66" s="0">
-        <v>0</v>
+        <v>0.90501532372520554</v>
       </c>
       <c r="E66" s="0">
         <v>0</v>
@@ -13545,7 +13545,7 @@
         <v>0</v>
       </c>
       <c r="J66" s="0">
-        <v>0</v>
+        <v>0.59886816923827801</v>
       </c>
       <c r="K66" s="0">
         <v>0</v>
@@ -13707,24 +13707,24 @@
         <v>0</v>
       </c>
       <c r="BL66" s="0">
-        <v>0</v>
+        <v>0.50264252930457987</v>
       </c>
       <c r="BM66" s="0">
-        <v>1</v>
+        <v>0.78806607723469768</v>
       </c>
       <c r="BN66" s="0">
         <v>0</v>
       </c>
       <c r="BO66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP66" s="0">
-        <v>1</v>
+        <v>0.60716253737074877</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B67" s="0">
         <v>0</v>
@@ -13751,7 +13751,7 @@
         <v>0</v>
       </c>
       <c r="J67" s="0">
-        <v>0</v>
+        <v>0.81826180027150586</v>
       </c>
       <c r="K67" s="0">
         <v>0</v>
@@ -13916,24 +13916,24 @@
         <v>0</v>
       </c>
       <c r="BM67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO67" s="0">
         <v>0</v>
       </c>
       <c r="BP67" s="0">
-        <v>1</v>
+        <v>0.79423318992645997</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="0">
-        <v>1</v>
+        <v>0.57869904526053051</v>
       </c>
       <c r="B68" s="0">
-        <v>1</v>
+        <v>0.6528961202716399</v>
       </c>
       <c r="C68" s="0">
         <v>0</v>
@@ -14014,7 +14014,7 @@
         <v>0</v>
       </c>
       <c r="AC68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD68" s="0">
         <v>0</v>
@@ -14119,16 +14119,16 @@
         <v>0</v>
       </c>
       <c r="BL68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM68" s="0">
         <v>0</v>
       </c>
       <c r="BN68" s="0">
-        <v>1</v>
+        <v>0.74171997896532815</v>
       </c>
       <c r="BO68" s="0">
-        <v>1</v>
+        <v>0.96907482041076309</v>
       </c>
       <c r="BP68" s="0">
         <v>0</v>

--- a/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName1/subject44.xlsx
+++ b/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName1/subject44.xlsx
@@ -131,7 +131,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0">
-        <v>0.54727730700077792</v>
+        <v>0.67803479114983412</v>
       </c>
       <c r="C1" s="0">
         <v>0</v>
@@ -340,10 +340,10 @@
         <v>0</v>
       </c>
       <c r="C2" s="0">
-        <v>0.53635087188581743</v>
+        <v>0.54150621371675611</v>
       </c>
       <c r="D2" s="0">
-        <v>0.56511712900033073</v>
+        <v>0.97288749503397409</v>
       </c>
       <c r="E2" s="0">
         <v>0</v>
@@ -761,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="0">
-        <v>0.74276010920401159</v>
+        <v>0.95273202936010803</v>
       </c>
       <c r="G4" s="0">
         <v>0</v>
@@ -958,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="0">
-        <v>0.76881572447082813</v>
+        <v>0.88200444055247451</v>
       </c>
       <c r="D5" s="0">
         <v>0</v>
@@ -985,7 +985,7 @@
         <v>0</v>
       </c>
       <c r="L5" s="0">
-        <v>0.66466502964326846</v>
+        <v>0.90557777691126151</v>
       </c>
       <c r="M5" s="0">
         <v>0</v>
@@ -1170,16 +1170,16 @@
         <v>0.95273202936010803</v>
       </c>
       <c r="E6" s="0">
-        <v>0.73365872049245606</v>
+        <v>0.97124550683980493</v>
       </c>
       <c r="F6" s="0">
         <v>0</v>
       </c>
       <c r="G6" s="0">
-        <v>0.76679438890524931</v>
+        <v>0.83878787648448683</v>
       </c>
       <c r="H6" s="0">
-        <v>0.51159515829791347</v>
+        <v>0.96577833579014993</v>
       </c>
       <c r="I6" s="0">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="AH6" s="0">
-        <v>0.55428082571495807</v>
+        <v>0.86377972732039421</v>
       </c>
       <c r="AI6" s="0">
         <v>0</v>
@@ -1376,7 +1376,7 @@
         <v>0</v>
       </c>
       <c r="E7" s="0">
-        <v>0.82014394326513829</v>
+        <v>0.87558583060844009</v>
       </c>
       <c r="F7" s="0">
         <v>0.83878787648448683</v>
@@ -1576,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="C8" s="0">
-        <v>0.90024147197562088</v>
+        <v>0.92037825725492484</v>
       </c>
       <c r="D8" s="0">
         <v>0</v>
@@ -1588,7 +1588,7 @@
         <v>0.96577833579014993</v>
       </c>
       <c r="G8" s="0">
-        <v>0.85349698517505335</v>
+        <v>0.92200598780406762</v>
       </c>
       <c r="H8" s="0">
         <v>0</v>
@@ -1708,7 +1708,7 @@
         <v>0</v>
       </c>
       <c r="AU8" s="0">
-        <v>0.67074900847176</v>
+        <v>0.93777673633464498</v>
       </c>
       <c r="AV8" s="0">
         <v>0</v>
@@ -1794,7 +1794,7 @@
         <v>0</v>
       </c>
       <c r="G9" s="0">
-        <v>0.55375406915233982</v>
+        <v>0.90056726492772987</v>
       </c>
       <c r="H9" s="0">
         <v>0</v>
@@ -1803,7 +1803,7 @@
         <v>0</v>
       </c>
       <c r="J9" s="0">
-        <v>0.63717235066835598</v>
+        <v>0.64214449778127114</v>
       </c>
       <c r="K9" s="0">
         <v>0.99048863995723546</v>
@@ -2003,7 +2003,7 @@
         <v>0</v>
       </c>
       <c r="H10" s="0">
-        <v>0.64714441965003644</v>
+        <v>0.79162633636021129</v>
       </c>
       <c r="I10" s="0">
         <v>0.64214449778127114</v>
@@ -2015,7 +2015,7 @@
         <v>0.7107858083945835</v>
       </c>
       <c r="L10" s="0">
-        <v>0.64976458212668298</v>
+        <v>0.88600758086320652</v>
       </c>
       <c r="M10" s="0">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="AX10" s="0">
-        <v>0.71792346787499095</v>
+        <v>0.80374068561669831</v>
       </c>
       <c r="AY10" s="0">
         <v>0</v>
@@ -2159,7 +2159,7 @@
         <v>0</v>
       </c>
       <c r="BH10" s="0">
-        <v>0.65081669745523785</v>
+        <v>0.82265167708283382</v>
       </c>
       <c r="BI10" s="0">
         <v>0</v>
@@ -2212,10 +2212,10 @@
         <v>0</v>
       </c>
       <c r="I11" s="0">
-        <v>0.765962831245658</v>
+        <v>0.99048863995723546</v>
       </c>
       <c r="J11" s="0">
-        <v>0.66604173400463729</v>
+        <v>0.7107858083945835</v>
       </c>
       <c r="K11" s="0">
         <v>0</v>
@@ -2424,13 +2424,13 @@
         <v>0.88600758086320652</v>
       </c>
       <c r="K12" s="0">
-        <v>0.56557689279586754</v>
+        <v>0.80642629184520076</v>
       </c>
       <c r="L12" s="0">
         <v>0</v>
       </c>
       <c r="M12" s="0">
-        <v>0.50233012301483848</v>
+        <v>0.55637028250836917</v>
       </c>
       <c r="N12" s="0">
         <v>0</v>
@@ -2630,7 +2630,7 @@
         <v>0</v>
       </c>
       <c r="K13" s="0">
-        <v>0.61015021589721596</v>
+        <v>0.71563985981266964</v>
       </c>
       <c r="L13" s="0">
         <v>0.55637028250836917</v>
@@ -2642,7 +2642,7 @@
         <v>0.94019250393537179</v>
       </c>
       <c r="O13" s="0">
-        <v>0.55419728600738483</v>
+        <v>0.61918823160932579</v>
       </c>
       <c r="P13" s="0">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="0">
-        <v>0.63408237893164177</v>
+        <v>0.94019250393537179</v>
       </c>
       <c r="N14" s="0">
         <v>0</v>
@@ -3051,7 +3051,7 @@
         <v>0.61918823160932579</v>
       </c>
       <c r="N15" s="0">
-        <v>0.55466616990488138</v>
+        <v>0.88093750698839091</v>
       </c>
       <c r="O15" s="0">
         <v>0</v>
@@ -3060,7 +3060,7 @@
         <v>0.85737413787442618</v>
       </c>
       <c r="Q15" s="0">
-        <v>0.92787188705235402</v>
+        <v>0.95884603683489489</v>
       </c>
       <c r="R15" s="0">
         <v>0</v>
@@ -3162,7 +3162,7 @@
         <v>0</v>
       </c>
       <c r="AY15" s="0">
-        <v>0.78520544859744112</v>
+        <v>0.96000543082232137</v>
       </c>
       <c r="AZ15" s="0">
         <v>0</v>
@@ -3260,16 +3260,16 @@
         <v>0</v>
       </c>
       <c r="O16" s="0">
-        <v>0.61609346809107024</v>
+        <v>0.85737413787442618</v>
       </c>
       <c r="P16" s="0">
         <v>0</v>
       </c>
       <c r="Q16" s="0">
-        <v>0.5003690374249431</v>
+        <v>0.5350429489478209</v>
       </c>
       <c r="R16" s="0">
-        <v>0.57783737178043681</v>
+        <v>0.98355729400800107</v>
       </c>
       <c r="S16" s="0">
         <v>0</v>
@@ -3475,7 +3475,7 @@
         <v>0</v>
       </c>
       <c r="R17" s="0">
-        <v>0.91212658752439824</v>
+        <v>0.99936229994592696</v>
       </c>
       <c r="S17" s="0">
         <v>0.75047496476156972</v>
@@ -3857,7 +3857,7 @@
         <v>0</v>
       </c>
       <c r="H19" s="0">
-        <v>0.61233076925374208</v>
+        <v>0.85852537995773359</v>
       </c>
       <c r="I19" s="0">
         <v>0</v>
@@ -3884,16 +3884,16 @@
         <v>0</v>
       </c>
       <c r="Q19" s="0">
-        <v>0.58692716421107494</v>
+        <v>0.75047496476156972</v>
       </c>
       <c r="R19" s="0">
-        <v>0.72402992785631481</v>
+        <v>0.83355280616886152</v>
       </c>
       <c r="S19" s="0">
         <v>0</v>
       </c>
       <c r="T19" s="0">
-        <v>0.56745680129120912</v>
+        <v>0.9190567380578899</v>
       </c>
       <c r="U19" s="0">
         <v>0.95255422392249145</v>
@@ -4093,7 +4093,7 @@
         <v>0</v>
       </c>
       <c r="R20" s="0">
-        <v>0.54427071246747882</v>
+        <v>0.80370193966072456</v>
       </c>
       <c r="S20" s="0">
         <v>0.9190567380578899</v>
@@ -4287,7 +4287,7 @@
         <v>0</v>
       </c>
       <c r="N21" s="0">
-        <v>0.72321781648220651</v>
+        <v>0.76360999904246118</v>
       </c>
       <c r="O21" s="0">
         <v>0</v>
@@ -4302,16 +4302,16 @@
         <v>0</v>
       </c>
       <c r="S21" s="0">
-        <v>0.8783422274754018</v>
+        <v>0.95255422392249145</v>
       </c>
       <c r="T21" s="0">
-        <v>0.51702041133209053</v>
+        <v>0.83319775947561592</v>
       </c>
       <c r="U21" s="0">
         <v>0</v>
       </c>
       <c r="V21" s="0">
-        <v>0.78604366219099397</v>
+        <v>0.83083712574213864</v>
       </c>
       <c r="W21" s="0">
         <v>0</v>
@@ -4511,7 +4511,7 @@
         <v>0</v>
       </c>
       <c r="T22" s="0">
-        <v>0.86262146686555519</v>
+        <v>0.93604060545225798</v>
       </c>
       <c r="U22" s="0">
         <v>0.83083712574213864</v>
@@ -4520,7 +4520,7 @@
         <v>0</v>
       </c>
       <c r="W22" s="0">
-        <v>0.89222142170470309</v>
+        <v>0.95104229525100825</v>
       </c>
       <c r="X22" s="0">
         <v>0.83729147107772561</v>
@@ -4929,7 +4929,7 @@
         <v>0</v>
       </c>
       <c r="V24" s="0">
-        <v>0.73821632041258367</v>
+        <v>0.83729147107772561</v>
       </c>
       <c r="W24" s="0">
         <v>0</v>
@@ -4941,7 +4941,7 @@
         <v>0</v>
       </c>
       <c r="Z24" s="0">
-        <v>0.72635673437590809</v>
+        <v>0.7764972605777547</v>
       </c>
       <c r="AA24" s="0">
         <v>0</v>
@@ -5019,7 +5019,7 @@
         <v>0</v>
       </c>
       <c r="AZ24" s="0">
-        <v>0.70351682021776951</v>
+        <v>0.81078121413340642</v>
       </c>
       <c r="BA24" s="0">
         <v>0</v>
@@ -5138,7 +5138,7 @@
         <v>0</v>
       </c>
       <c r="W25" s="0">
-        <v>0.60778781405691129</v>
+        <v>0.72263166818914237</v>
       </c>
       <c r="X25" s="0">
         <v>0</v>
@@ -5350,16 +5350,16 @@
         <v>0.7764972605777547</v>
       </c>
       <c r="Y26" s="0">
-        <v>0.70446424183091416</v>
+        <v>0.72510601481172987</v>
       </c>
       <c r="Z26" s="0">
         <v>0</v>
       </c>
       <c r="AA26" s="0">
-        <v>0.80625866179226335</v>
+        <v>0.89505782868874872</v>
       </c>
       <c r="AB26" s="0">
-        <v>0.64210624297401875</v>
+        <v>0.78782655330303175</v>
       </c>
       <c r="AC26" s="0">
         <v>0</v>
@@ -5556,7 +5556,7 @@
         <v>0</v>
       </c>
       <c r="Y27" s="0">
-        <v>0.92302601347000635</v>
+        <v>0.97643346860326075</v>
       </c>
       <c r="Z27" s="0">
         <v>0.89505782868874872</v>
@@ -5768,13 +5768,13 @@
         <v>0.78782655330303175</v>
       </c>
       <c r="AA28" s="0">
-        <v>0.79828426312763878</v>
+        <v>0.81971758955882934</v>
       </c>
       <c r="AB28" s="0">
         <v>0</v>
       </c>
       <c r="AC28" s="0">
-        <v>0.58013081437399683</v>
+        <v>0.88844864534379742</v>
       </c>
       <c r="AD28" s="0">
         <v>0.82451925973670392</v>
@@ -5965,7 +5965,7 @@
         <v>0</v>
       </c>
       <c r="X29" s="0">
-        <v>0.65440047091375697</v>
+        <v>0.7291483854405314</v>
       </c>
       <c r="Y29" s="0">
         <v>0</v>
@@ -5974,7 +5974,7 @@
         <v>0</v>
       </c>
       <c r="AA29" s="0">
-        <v>0.54907650295878585</v>
+        <v>0.68434956475421882</v>
       </c>
       <c r="AB29" s="0">
         <v>0.88844864534379742</v>
@@ -5983,7 +5983,7 @@
         <v>0</v>
       </c>
       <c r="AD29" s="0">
-        <v>0.83671735003141023</v>
+        <v>0.85539019028888053</v>
       </c>
       <c r="AE29" s="0">
         <v>0</v>
@@ -6183,7 +6183,7 @@
         <v>0</v>
       </c>
       <c r="AB30" s="0">
-        <v>0.77304004259389025</v>
+        <v>0.82451925973670392</v>
       </c>
       <c r="AC30" s="0">
         <v>0.85539019028888053</v>
@@ -6192,7 +6192,7 @@
         <v>0</v>
       </c>
       <c r="AE30" s="0">
-        <v>0.59275207539401609</v>
+        <v>0.81884797596899106</v>
       </c>
       <c r="AF30" s="0">
         <v>0</v>
@@ -6347,7 +6347,7 @@
         <v>0</v>
       </c>
       <c r="N31" s="0">
-        <v>0.53001254690150867</v>
+        <v>0.98681131968814095</v>
       </c>
       <c r="O31" s="0">
         <v>0</v>
@@ -6401,10 +6401,10 @@
         <v>0</v>
       </c>
       <c r="AF31" s="0">
-        <v>0.52393604172003216</v>
+        <v>0.67790647497535472</v>
       </c>
       <c r="AG31" s="0">
-        <v>0.91206491158432801</v>
+        <v>0.95749742473639343</v>
       </c>
       <c r="AH31" s="0">
         <v>0</v>
@@ -6813,7 +6813,7 @@
         <v>0.95749742473639343</v>
       </c>
       <c r="AF33" s="0">
-        <v>0.87341504975611572</v>
+        <v>0.94599866184163162</v>
       </c>
       <c r="AG33" s="0">
         <v>0</v>
@@ -6912,7 +6912,7 @@
         <v>0</v>
       </c>
       <c r="BM33" s="0">
-        <v>0.59698110502332358</v>
+        <v>0.99486495228444261</v>
       </c>
       <c r="BN33" s="0">
         <v>0</v>
@@ -7019,10 +7019,10 @@
         <v>0</v>
       </c>
       <c r="AF34" s="0">
-        <v>0.64864248645518296</v>
+        <v>0.69481494668902166</v>
       </c>
       <c r="AG34" s="0">
-        <v>0.65839455023295557</v>
+        <v>0.69708130146717662</v>
       </c>
       <c r="AH34" s="0">
         <v>0</v>
@@ -7058,7 +7058,7 @@
         <v>0</v>
       </c>
       <c r="AS34" s="0">
-        <v>0.56673609299763905</v>
+        <v>0.86107138554654628</v>
       </c>
       <c r="AT34" s="0">
         <v>0</v>
@@ -7231,7 +7231,7 @@
         <v>0</v>
       </c>
       <c r="AH35" s="0">
-        <v>0.50506632873260304</v>
+        <v>0.72356885342728994</v>
       </c>
       <c r="AI35" s="0">
         <v>0</v>
@@ -7446,7 +7446,7 @@
         <v>0</v>
       </c>
       <c r="AK36" s="0">
-        <v>0.50883790778849292</v>
+        <v>0.90249539850787741</v>
       </c>
       <c r="AL36" s="0">
         <v>0</v>
@@ -7518,7 +7518,7 @@
         <v>0</v>
       </c>
       <c r="BI36" s="0">
-        <v>0.64394542964941448</v>
+        <v>0.90448437358814782</v>
       </c>
       <c r="BJ36" s="0">
         <v>0</v>
@@ -7530,7 +7530,7 @@
         <v>0</v>
       </c>
       <c r="BM36" s="0">
-        <v>0.55893395102029308</v>
+        <v>0.86304587135711119</v>
       </c>
       <c r="BN36" s="0">
         <v>0</v>
@@ -7658,7 +7658,7 @@
         <v>0.848761380938995</v>
       </c>
       <c r="AM37" s="0">
-        <v>0.51362376628997031</v>
+        <v>0.91899484689294775</v>
       </c>
       <c r="AN37" s="0">
         <v>0</v>
@@ -7712,7 +7712,7 @@
         <v>0</v>
       </c>
       <c r="BE37" s="0">
-        <v>0.84084174495859876</v>
+        <v>0.94588533245969686</v>
       </c>
       <c r="BF37" s="0">
         <v>0</v>
@@ -7858,16 +7858,16 @@
         <v>0</v>
       </c>
       <c r="AK38" s="0">
-        <v>0.54040361521902447</v>
+        <v>0.848761380938995</v>
       </c>
       <c r="AL38" s="0">
         <v>0</v>
       </c>
       <c r="AM38" s="0">
-        <v>0.67621265773518435</v>
+        <v>0.89930443638345314</v>
       </c>
       <c r="AN38" s="0">
-        <v>0.51048264010006017</v>
+        <v>0.52127756934793257</v>
       </c>
       <c r="AO38" s="0">
         <v>0</v>
@@ -8058,7 +8058,7 @@
         <v>0</v>
       </c>
       <c r="AI39" s="0">
-        <v>0.50009159435618589</v>
+        <v>0.80209955144346634</v>
       </c>
       <c r="AJ39" s="0">
         <v>0</v>
@@ -8228,7 +8228,7 @@
         <v>0</v>
       </c>
       <c r="W40" s="0">
-        <v>0.57859886567980989</v>
+        <v>0.82471752458801673</v>
       </c>
       <c r="X40" s="0">
         <v>0</v>
@@ -8276,7 +8276,7 @@
         <v>0.52127756934793257</v>
       </c>
       <c r="AM40" s="0">
-        <v>0.88419213698612487</v>
+        <v>0.93368560821275048</v>
       </c>
       <c r="AN40" s="0">
         <v>0</v>
@@ -8482,10 +8482,10 @@
         <v>0</v>
       </c>
       <c r="AM41" s="0">
-        <v>0.67493983237569899</v>
+        <v>0.95154558136803535</v>
       </c>
       <c r="AN41" s="0">
-        <v>0.77803848491919525</v>
+        <v>0.86252758825440479</v>
       </c>
       <c r="AO41" s="0">
         <v>0</v>
@@ -8545,7 +8545,7 @@
         <v>0</v>
       </c>
       <c r="BH41" s="0">
-        <v>0.6187079348142035</v>
+        <v>0.65695231980018742</v>
       </c>
       <c r="BI41" s="0">
         <v>0</v>
@@ -8691,16 +8691,16 @@
         <v>0</v>
       </c>
       <c r="AN42" s="0">
-        <v>0.92370773668712802</v>
+        <v>0.94794085771131464</v>
       </c>
       <c r="AO42" s="0">
-        <v>0.54120273214595782</v>
+        <v>0.93100034202679494</v>
       </c>
       <c r="AP42" s="0">
         <v>0</v>
       </c>
       <c r="AQ42" s="0">
-        <v>0.66202330725014646</v>
+        <v>0.66864853068312802</v>
       </c>
       <c r="AR42" s="0">
         <v>0.91474042081035889</v>
@@ -8909,7 +8909,7 @@
         <v>0</v>
       </c>
       <c r="AR43" s="0">
-        <v>0.71913069289594245</v>
+        <v>0.95099495242011711</v>
       </c>
       <c r="AS43" s="0">
         <v>0.9829772245583217</v>
@@ -8957,7 +8957,7 @@
         <v>0</v>
       </c>
       <c r="BH43" s="0">
-        <v>0.64884004045026478</v>
+        <v>0.82652350780444428</v>
       </c>
       <c r="BI43" s="0">
         <v>0</v>
@@ -9109,7 +9109,7 @@
         <v>0</v>
       </c>
       <c r="AP44" s="0">
-        <v>0.77098214499428763</v>
+        <v>0.91474042081035889</v>
       </c>
       <c r="AQ44" s="0">
         <v>0.95099495242011711</v>
@@ -9318,10 +9318,10 @@
         <v>0</v>
       </c>
       <c r="AQ45" s="0">
-        <v>0.52419612764723844</v>
+        <v>0.9829772245583217</v>
       </c>
       <c r="AR45" s="0">
-        <v>0.95387923947254682</v>
+        <v>0.96890728593019415</v>
       </c>
       <c r="AS45" s="0">
         <v>0</v>
@@ -9527,10 +9527,10 @@
         <v>0</v>
       </c>
       <c r="AR46" s="0">
-        <v>0.68321746987924525</v>
+        <v>0.70162698430614312</v>
       </c>
       <c r="AS46" s="0">
-        <v>0.57554604275461607</v>
+        <v>0.76913474449232822</v>
       </c>
       <c r="AT46" s="0">
         <v>0</v>
@@ -9739,7 +9739,7 @@
         <v>0</v>
       </c>
       <c r="AT47" s="0">
-        <v>0.69122538845912906</v>
+        <v>0.99334594746585747</v>
       </c>
       <c r="AU47" s="0">
         <v>0</v>
@@ -9748,7 +9748,7 @@
         <v>0</v>
       </c>
       <c r="AW47" s="0">
-        <v>0.59760737132895869</v>
+        <v>0.67281940069482582</v>
       </c>
       <c r="AX47" s="0">
         <v>0</v>
@@ -9945,7 +9945,7 @@
         <v>0</v>
       </c>
       <c r="AT48" s="0">
-        <v>0.54554043875493008</v>
+        <v>0.58215015269244086</v>
       </c>
       <c r="AU48" s="0">
         <v>0</v>
@@ -10157,13 +10157,13 @@
         <v>0.67281940069482582</v>
       </c>
       <c r="AV49" s="0">
-        <v>0.60250235537116992</v>
+        <v>0.67353648712874992</v>
       </c>
       <c r="AW49" s="0">
         <v>0</v>
       </c>
       <c r="AX49" s="0">
-        <v>0.90250197591305259</v>
+        <v>0.97326508207775597</v>
       </c>
       <c r="AY49" s="0">
         <v>0</v>
@@ -10208,7 +10208,7 @@
         <v>0</v>
       </c>
       <c r="BM49" s="0">
-        <v>0.60031670616233046</v>
+        <v>0.68209840043648207</v>
       </c>
       <c r="BN49" s="0">
         <v>0</v>
@@ -10363,7 +10363,7 @@
         <v>0</v>
       </c>
       <c r="AV50" s="0">
-        <v>0.6637881058437044</v>
+        <v>0.98891242609354979</v>
       </c>
       <c r="AW50" s="0">
         <v>0.97326508207775597</v>
@@ -10375,7 +10375,7 @@
         <v>0</v>
       </c>
       <c r="AZ50" s="0">
-        <v>0.78512316149198202</v>
+        <v>0.96151681693828794</v>
       </c>
       <c r="BA50" s="0">
         <v>0</v>
@@ -10396,7 +10396,7 @@
         <v>0</v>
       </c>
       <c r="BG50" s="0">
-        <v>0.59648465365495196</v>
+        <v>0.89572529493956377</v>
       </c>
       <c r="BH50" s="0">
         <v>0</v>
@@ -10584,7 +10584,7 @@
         <v>0</v>
       </c>
       <c r="BA51" s="0">
-        <v>0.76067624596753869</v>
+        <v>0.83483212012531616</v>
       </c>
       <c r="BB51" s="0">
         <v>0</v>
@@ -10736,7 +10736,7 @@
         <v>0</v>
       </c>
       <c r="AI52" s="0">
-        <v>0.53827006730047744</v>
+        <v>0.5875295190472124</v>
       </c>
       <c r="AJ52" s="0">
         <v>0</v>
@@ -10790,10 +10790,10 @@
         <v>0</v>
       </c>
       <c r="BA52" s="0">
-        <v>0.81124469407107958</v>
+        <v>0.85067070819912938</v>
       </c>
       <c r="BB52" s="0">
-        <v>0.69592707894817529</v>
+        <v>0.98290981255491949</v>
       </c>
       <c r="BC52" s="0">
         <v>0</v>
@@ -11002,7 +11002,7 @@
         <v>0.67941281477392179</v>
       </c>
       <c r="BC53" s="0">
-        <v>0.72922551299906169</v>
+        <v>0.901961027934989</v>
       </c>
       <c r="BD53" s="0">
         <v>0</v>
@@ -11202,7 +11202,7 @@
         <v>0.98290981255491949</v>
       </c>
       <c r="BA54" s="0">
-        <v>0.56049435160747774</v>
+        <v>0.67941281477392179</v>
       </c>
       <c r="BB54" s="0">
         <v>0</v>
@@ -11214,7 +11214,7 @@
         <v>0.71977807724890963</v>
       </c>
       <c r="BE54" s="0">
-        <v>0.61529101344966719</v>
+        <v>0.99084464045993581</v>
       </c>
       <c r="BF54" s="0">
         <v>0</v>
@@ -11411,13 +11411,13 @@
         <v>0.901961027934989</v>
       </c>
       <c r="BB55" s="0">
-        <v>0.70126613728693554</v>
+        <v>0.70262328142551933</v>
       </c>
       <c r="BC55" s="0">
         <v>0</v>
       </c>
       <c r="BD55" s="0">
-        <v>0.71056009366710904</v>
+        <v>0.96358242357875812</v>
       </c>
       <c r="BE55" s="0">
         <v>0.71652098056573177</v>
@@ -11617,7 +11617,7 @@
         <v>0</v>
       </c>
       <c r="BB56" s="0">
-        <v>0.7117337279431788</v>
+        <v>0.71977807724890963</v>
       </c>
       <c r="BC56" s="0">
         <v>0.96358242357875812</v>
@@ -11629,7 +11629,7 @@
         <v>0.90277788659312885</v>
       </c>
       <c r="BF56" s="0">
-        <v>0.6822799645059433</v>
+        <v>0.83834761909553401</v>
       </c>
       <c r="BG56" s="0">
         <v>0</v>
@@ -11826,10 +11826,10 @@
         <v>0.99084464045993581</v>
       </c>
       <c r="BC57" s="0">
-        <v>0.64525972518699604</v>
+        <v>0.71652098056573177</v>
       </c>
       <c r="BD57" s="0">
-        <v>0.88806852584442575</v>
+        <v>0.90277788659312885</v>
       </c>
       <c r="BE57" s="0">
         <v>0</v>
@@ -12047,7 +12047,7 @@
         <v>0.96251542966482506</v>
       </c>
       <c r="BH58" s="0">
-        <v>0.79356723679678187</v>
+        <v>0.91503808136051434</v>
       </c>
       <c r="BI58" s="0">
         <v>0</v>
@@ -12247,7 +12247,7 @@
         <v>0</v>
       </c>
       <c r="BF59" s="0">
-        <v>0.51286825432508887</v>
+        <v>0.96251542966482506</v>
       </c>
       <c r="BG59" s="0">
         <v>0</v>
@@ -12465,7 +12465,7 @@
         <v>0</v>
       </c>
       <c r="BJ60" s="0">
-        <v>0.7556149498275968</v>
+        <v>0.96531579577547921</v>
       </c>
       <c r="BK60" s="0">
         <v>0</v>
@@ -12662,7 +12662,7 @@
         <v>0</v>
       </c>
       <c r="BG61" s="0">
-        <v>0.51083457966042944</v>
+        <v>0.97536184198809617</v>
       </c>
       <c r="BH61" s="0">
         <v>0</v>
@@ -12671,7 +12671,7 @@
         <v>0</v>
       </c>
       <c r="BJ61" s="0">
-        <v>0.68465944807191459</v>
+        <v>0.86054725989946579</v>
       </c>
       <c r="BK61" s="0">
         <v>0</v>
@@ -12721,7 +12721,7 @@
         <v>0</v>
       </c>
       <c r="J62" s="0">
-        <v>0.84721125048775026</v>
+        <v>0.95083889959931911</v>
       </c>
       <c r="K62" s="0">
         <v>0</v>
@@ -12903,7 +12903,7 @@
         <v>0</v>
       </c>
       <c r="B63" s="0">
-        <v>0.56628044068821715</v>
+        <v>0.83498329055797293</v>
       </c>
       <c r="C63" s="0">
         <v>0</v>
@@ -13092,7 +13092,7 @@
         <v>0</v>
       </c>
       <c r="BM63" s="0">
-        <v>0.56853441375706759</v>
+        <v>0.84817692346122486</v>
       </c>
       <c r="BN63" s="0">
         <v>0</v>
@@ -13106,7 +13106,7 @@
     </row>
     <row r="64">
       <c r="A64" s="0">
-        <v>0.55151800855732047</v>
+        <v>0.85169625792419446</v>
       </c>
       <c r="B64" s="0">
         <v>0</v>
@@ -13193,7 +13193,7 @@
         <v>0</v>
       </c>
       <c r="AD64" s="0">
-        <v>0.55323431366648657</v>
+        <v>0.58674261559540275</v>
       </c>
       <c r="AE64" s="0">
         <v>0</v>
@@ -13390,7 +13390,7 @@
         <v>0</v>
       </c>
       <c r="AA65" s="0">
-        <v>0.92651080573334821</v>
+        <v>0.9318153320876057</v>
       </c>
       <c r="AB65" s="0">
         <v>0</v>
@@ -13501,7 +13501,7 @@
         <v>0.84817692346122486</v>
       </c>
       <c r="BL65" s="0">
-        <v>0.68451808988726826</v>
+        <v>0.69401642520222717</v>
       </c>
       <c r="BM65" s="0">
         <v>0</v>
@@ -13527,7 +13527,7 @@
         <v>0</v>
       </c>
       <c r="D66" s="0">
-        <v>0.90501532372520554</v>
+        <v>0.97963536766872794</v>
       </c>
       <c r="E66" s="0">
         <v>0</v>
@@ -13545,7 +13545,7 @@
         <v>0</v>
       </c>
       <c r="J66" s="0">
-        <v>0.59886816923827801</v>
+        <v>0.80858962243266341</v>
       </c>
       <c r="K66" s="0">
         <v>0</v>
@@ -13707,10 +13707,10 @@
         <v>0</v>
       </c>
       <c r="BL66" s="0">
-        <v>0.50264252930457987</v>
+        <v>0.89215293854546607</v>
       </c>
       <c r="BM66" s="0">
-        <v>0.78806607723469768</v>
+        <v>0.83521667918063969</v>
       </c>
       <c r="BN66" s="0">
         <v>0</v>
@@ -13719,7 +13719,7 @@
         <v>0</v>
       </c>
       <c r="BP66" s="0">
-        <v>0.60716253737074877</v>
+        <v>0.74171997896532815</v>
       </c>
     </row>
     <row r="67">
@@ -13751,7 +13751,7 @@
         <v>0</v>
       </c>
       <c r="J67" s="0">
-        <v>0.81826180027150586</v>
+        <v>0.82138820442584071</v>
       </c>
       <c r="K67" s="0">
         <v>0</v>
@@ -13925,15 +13925,15 @@
         <v>0</v>
       </c>
       <c r="BP67" s="0">
-        <v>0.79423318992645997</v>
+        <v>0.96907482041076309</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="0">
-        <v>0.57869904526053051</v>
+        <v>0.63238729277621542</v>
       </c>
       <c r="B68" s="0">
-        <v>0.6528961202716399</v>
+        <v>0.70933300472642835</v>
       </c>
       <c r="C68" s="0">
         <v>0</v>
